--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0488DD31-C3E8-42C6-95C9-C28213614E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A65014-BCBA-4570-82B0-1E40D82E01E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{927129A5-FEFE-4DC6-84DA-5DF4E81CDDBA}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{927129A5-FEFE-4DC6-84DA-5DF4E81CDDBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Clients: </t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Cost:</t>
+  </si>
+  <si>
+    <t>Quantity:</t>
   </si>
 </sst>
 </file>
@@ -400,19 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1721846E-8B70-4BB0-989F-86A698E03048}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8.21875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,12 +424,15 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
